--- a/Flipkart/Input/Input.xlsx
+++ b/Flipkart/Input/Input.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flipkart\Flipkart\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himans663287\git\ElevateK12\Flipkart\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6546B850-3170-4B23-8992-060B36E18DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3672524E-3FDD-4100-AADA-D4D7D0042A69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="FilterCriteria" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,28 +55,28 @@
     <t>Filter2</t>
   </si>
   <si>
-    <t>Processor Brand;Snapdragon</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
-    <t>RAM;2 GB</t>
-  </si>
-  <si>
     <t>ScreenshotPath</t>
   </si>
   <si>
     <t>OutputCSV</t>
   </si>
   <si>
-    <t>D:\Flipkart\Flipkart\Screenshot</t>
-  </si>
-  <si>
-    <t>D:\Flipkart\Flipkart\Output\SearchResults.json</t>
+    <t>C:\Users\Himans663287\git\ElevateK12\Flipkart\Screenshot</t>
+  </si>
+  <si>
+    <t>C:\Users\Himans663287\git\ElevateK12\Flipkart\Output\SearchResults.json</t>
+  </si>
+  <si>
+    <t>mobiles</t>
+  </si>
+  <si>
+    <t>Internal Storage;16 - 31.9 GB</t>
+  </si>
+  <si>
+    <t>Screen Size;5 - 5.1 inch</t>
   </si>
 </sst>
 </file>
@@ -402,19 +412,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,56 +432,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F0B238-D263-457E-A347-E97E89AD27A7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>